--- a/TIMPOINTER 요구사항.xlsx
+++ b/TIMPOINTER 요구사항.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8e41ac4b573d6fa/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\onedrive\수업\timpointer\idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="1DCD61C9ABEDDA18305DFA0B59EF9C7BC4368C3C" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{5454FD45-459A-4F5D-80BF-6C91F69C527C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,78 +24,2056 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
-    <t>1. 일반 모니터를 터치가 가능하게 한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t xml:space="preserve">3.2.3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>센서에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배터리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완충여부를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있어야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
-    <t>1.1. 화면크기가 60인치 이하까지 지원해야한다</t>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오류를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려주어야한다</t>
+    </r>
   </si>
   <si>
-    <t>1.2. 터치 제스처 기능이 있어야한다</t>
+    <r>
+      <t xml:space="preserve">4.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오류를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려주어야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
-    <t>1.2.1. 아이콘을 옮기거나 텍스트 블록을 선택하는 기능</t>
+    <r>
+      <t xml:space="preserve">4.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>센서와의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오류를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알려주어야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
-    <t>1.2.2. 프로그램을 실행하는 기능</t>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모니터를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>터치가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다</t>
+    </r>
   </si>
   <si>
-    <t>1.2.3. 버튼을 누르는 기능</t>
+    <r>
+      <t xml:space="preserve">1.1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면크기가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> 60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이하까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지원해야한다</t>
+    </r>
   </si>
   <si>
-    <t>1.2.4. 확대, 축소 등을 할 수 있는 기능</t>
+    <r>
+      <t xml:space="preserve">1.2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>터치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제스처</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있어야한다</t>
+    </r>
   </si>
   <si>
-    <t>2. 플랫폼은 윈도우 10을 지원하여야 한다.</t>
+    <r>
+      <t xml:space="preserve">1.2.2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로그램을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실행하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
   </si>
   <si>
-    <t>3. 설치가 간편하여야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t xml:space="preserve">1.2.3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>누르는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
   </si>
   <si>
-    <t>3.1. 무선으로 센서와 PC가 연결이 되어야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t xml:space="preserve">1.2.4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>축소를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
   </si>
   <si>
-    <t>3.2. 센서는 배터리가 내장되어 있어야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플랫폼은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>윈도우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지원하여야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
-    <t>3.2.1. 센서의 배터리는 최소 2시간을 이용 가능하게 해야한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설치가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>간편하여야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
-    <t>3.2.2. 컴퓨터에서 센서의 배터리의 잔량을 확인할 수 있어야한다. </t>
+    <r>
+      <t xml:space="preserve">3.1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무선으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>센서와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> PC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되어야한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
-    <t>3.2.3. 센서에서 배터리 잔량을 확인할 수 있어야한다.</t>
+    <r>
+      <t xml:space="preserve">3.2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>센서는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배터리가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내장되어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있어야한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
-    <t>3.3. 애플리케이션을 설치하면 자동으로 센서와 연결된다.</t>
+    <r>
+      <t xml:space="preserve">3.2.1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>센서의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배터리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해야한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
-    <t>3.4. 화면 크기와 해상도를 자동으로 인식한다</t>
+    <r>
+      <t xml:space="preserve">3.2.2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컴퓨터에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>센서의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배터리의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔량을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있어야한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t>. </t>
+    </r>
   </si>
   <si>
-    <t>4. 입력 오류를 알려주어야한다</t>
+    <r>
+      <t>3.2.4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애플리케이션에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배터리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잔량</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경고가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되어야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
-    <t>5. 설정을 변경할 수 있어야 한다</t>
+    <r>
+      <t xml:space="preserve">3.3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애플리케이션을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설치하면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>센서와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결된다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
-    <t>5.1. 화면 크기와 해상도를 직접 설정가능하다</t>
+    <r>
+      <t xml:space="preserve">3.4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크기와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해상도를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인식한다</t>
+    </r>
   </si>
   <si>
-    <t>5.2. 별도로 캘리브레이션을 할 수 있어야 한다</t>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있어야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크기를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직접</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정가능하다</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>별도로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캘리브레이션을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있어야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한다</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.2.1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이콘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>옮기거나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텍스트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>블록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +2104,32 @@
       <color rgb="FFFF0000"/>
       <name val="Book Antiqua"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -150,7 +2153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,9 +2169,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -184,7 +2193,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,14 +2488,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="9" width="9" style="2"/>
@@ -494,129 +2503,144 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="C4" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="B28" s="1"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
